--- a/2022/Samsung/APRIL/17.04.2022/SAMSUNG Bank Statement April-2022.xlsx
+++ b/2022/Samsung/APRIL/17.04.2022/SAMSUNG Bank Statement April-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3520,57 +3520,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3649,38 +3649,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="41" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3694,34 +3721,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="41" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6507,8 +6507,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6526,67 +6526,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="408" t="s">
+      <c r="A1" s="404" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="408"/>
-      <c r="C1" s="408"/>
-      <c r="D1" s="408"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
-      <c r="G1" s="408"/>
-      <c r="H1" s="408"/>
-      <c r="I1" s="408"/>
-      <c r="J1" s="408"/>
-      <c r="K1" s="408"/>
-      <c r="L1" s="408"/>
-      <c r="M1" s="408"/>
-      <c r="N1" s="408"/>
-      <c r="O1" s="408"/>
-      <c r="P1" s="408"/>
-      <c r="Q1" s="408"/>
+      <c r="B1" s="404"/>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
+      <c r="K1" s="404"/>
+      <c r="L1" s="404"/>
+      <c r="M1" s="404"/>
+      <c r="N1" s="404"/>
+      <c r="O1" s="404"/>
+      <c r="P1" s="404"/>
+      <c r="Q1" s="404"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="409" t="s">
+      <c r="A2" s="405" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="409"/>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
-      <c r="F2" s="409"/>
-      <c r="G2" s="409"/>
-      <c r="H2" s="409"/>
-      <c r="I2" s="409"/>
-      <c r="J2" s="409"/>
-      <c r="K2" s="409"/>
-      <c r="L2" s="409"/>
-      <c r="M2" s="409"/>
-      <c r="N2" s="409"/>
-      <c r="O2" s="409"/>
-      <c r="P2" s="409"/>
-      <c r="Q2" s="409"/>
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="405"/>
+      <c r="O2" s="405"/>
+      <c r="P2" s="405"/>
+      <c r="Q2" s="405"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="410" t="s">
+      <c r="A3" s="406" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="411"/>
-      <c r="C3" s="411"/>
-      <c r="D3" s="411"/>
-      <c r="E3" s="411"/>
-      <c r="F3" s="411"/>
-      <c r="G3" s="411"/>
-      <c r="H3" s="411"/>
-      <c r="I3" s="411"/>
-      <c r="J3" s="411"/>
-      <c r="K3" s="411"/>
-      <c r="L3" s="411"/>
-      <c r="M3" s="411"/>
-      <c r="N3" s="411"/>
-      <c r="O3" s="411"/>
-      <c r="P3" s="411"/>
-      <c r="Q3" s="412"/>
+      <c r="B3" s="407"/>
+      <c r="C3" s="407"/>
+      <c r="D3" s="407"/>
+      <c r="E3" s="407"/>
+      <c r="F3" s="407"/>
+      <c r="G3" s="407"/>
+      <c r="H3" s="407"/>
+      <c r="I3" s="407"/>
+      <c r="J3" s="407"/>
+      <c r="K3" s="407"/>
+      <c r="L3" s="407"/>
+      <c r="M3" s="407"/>
+      <c r="N3" s="407"/>
+      <c r="O3" s="407"/>
+      <c r="P3" s="407"/>
+      <c r="Q3" s="408"/>
       <c r="S3" s="47"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6595,52 +6595,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="413" t="s">
+      <c r="A4" s="409" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="415" t="s">
+      <c r="B4" s="411" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="404" t="s">
+      <c r="C4" s="413" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="404" t="s">
+      <c r="D4" s="413" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="404" t="s">
+      <c r="E4" s="413" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="417" t="s">
+      <c r="F4" s="415" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="404" t="s">
+      <c r="G4" s="413" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="404" t="s">
+      <c r="H4" s="413" t="s">
         <v>274</v>
       </c>
-      <c r="I4" s="404" t="s">
+      <c r="I4" s="413" t="s">
         <v>245</v>
       </c>
-      <c r="J4" s="404" t="s">
+      <c r="J4" s="413" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="404" t="s">
+      <c r="K4" s="413" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="404" t="s">
+      <c r="L4" s="413" t="s">
         <v>283</v>
       </c>
-      <c r="M4" s="404" t="s">
+      <c r="M4" s="413" t="s">
         <v>281</v>
       </c>
-      <c r="N4" s="404" t="s">
+      <c r="N4" s="413" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="406" t="s">
+      <c r="O4" s="419" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="419" t="s">
+      <c r="P4" s="417" t="s">
         <v>142</v>
       </c>
       <c r="Q4" s="121" t="s">
@@ -6653,22 +6653,22 @@
       <c r="W4" s="66"/>
     </row>
     <row r="5" spans="1:24" s="64" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="414"/>
-      <c r="B5" s="416"/>
-      <c r="C5" s="405"/>
-      <c r="D5" s="405"/>
-      <c r="E5" s="405"/>
-      <c r="F5" s="418"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="405"/>
-      <c r="J5" s="405"/>
-      <c r="K5" s="405"/>
-      <c r="L5" s="405"/>
-      <c r="M5" s="405"/>
-      <c r="N5" s="405"/>
-      <c r="O5" s="407"/>
-      <c r="P5" s="420"/>
+      <c r="A5" s="410"/>
+      <c r="B5" s="412"/>
+      <c r="C5" s="414"/>
+      <c r="D5" s="414"/>
+      <c r="E5" s="414"/>
+      <c r="F5" s="416"/>
+      <c r="G5" s="414"/>
+      <c r="H5" s="414"/>
+      <c r="I5" s="414"/>
+      <c r="J5" s="414"/>
+      <c r="K5" s="414"/>
+      <c r="L5" s="414"/>
+      <c r="M5" s="414"/>
+      <c r="N5" s="414"/>
+      <c r="O5" s="420"/>
+      <c r="P5" s="418"/>
       <c r="Q5" s="122" t="s">
         <v>38</v>
       </c>
@@ -7189,7 +7189,9 @@
       <c r="D19" s="80">
         <v>45</v>
       </c>
-      <c r="E19" s="80"/>
+      <c r="E19" s="80">
+        <v>650</v>
+      </c>
       <c r="F19" s="80"/>
       <c r="G19" s="80"/>
       <c r="H19" s="80"/>
@@ -7197,7 +7199,7 @@
         <v>100</v>
       </c>
       <c r="J19" s="80">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="K19" s="80"/>
       <c r="L19" s="80">
@@ -7652,7 +7654,7 @@
       </c>
       <c r="E37" s="98">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1650</v>
       </c>
       <c r="F37" s="98">
         <f t="shared" si="1"/>
@@ -7672,7 +7674,7 @@
       </c>
       <c r="J37" s="98">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="K37" s="98">
         <f t="shared" si="1"/>
@@ -9704,6 +9706,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9720,9 +9725,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9735,7 +9737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -33815,7 +33817,7 @@
   </sheetPr>
   <dimension ref="A1:R219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -37438,21 +37440,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A1" s="462"/>
-      <c r="B1" s="462"/>
-      <c r="C1" s="462"/>
-      <c r="D1" s="462"/>
-      <c r="E1" s="462"/>
-      <c r="F1" s="462"/>
-      <c r="G1" s="462"/>
-      <c r="H1" s="462"/>
-      <c r="I1" s="462"/>
+      <c r="A1" s="452"/>
+      <c r="B1" s="452"/>
+      <c r="C1" s="452"/>
+      <c r="D1" s="452"/>
+      <c r="E1" s="452"/>
+      <c r="F1" s="452"/>
+      <c r="G1" s="452"/>
+      <c r="H1" s="452"/>
+      <c r="I1" s="452"/>
     </row>
     <row r="2" spans="1:9" ht="24" thickBot="1">
-      <c r="A2" s="447" t="s">
+      <c r="A2" s="465" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="471"/>
+      <c r="B2" s="466"/>
       <c r="C2" s="297">
         <f>C83</f>
         <v>50500</v>
@@ -37465,10 +37467,10 @@
       <c r="I2" s="308"/>
     </row>
     <row r="3" spans="1:9" ht="24" thickBot="1">
-      <c r="A3" s="447" t="s">
+      <c r="A3" s="465" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="448"/>
+      <c r="B3" s="471"/>
       <c r="C3" s="297">
         <v>53000</v>
       </c>
@@ -37480,10 +37482,10 @@
       <c r="I3" s="308"/>
     </row>
     <row r="4" spans="1:9" ht="24" thickBot="1">
-      <c r="A4" s="447" t="s">
+      <c r="A4" s="465" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="448"/>
+      <c r="B4" s="471"/>
       <c r="C4" s="312">
         <f>C2-C3</f>
         <v>-2500</v>
@@ -37496,15 +37498,15 @@
       <c r="I4" s="308"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A5" s="462"/>
-      <c r="B5" s="462"/>
-      <c r="C5" s="462"/>
-      <c r="D5" s="462"/>
-      <c r="E5" s="462"/>
-      <c r="F5" s="462"/>
-      <c r="G5" s="462"/>
-      <c r="H5" s="462"/>
-      <c r="I5" s="462"/>
+      <c r="A5" s="452"/>
+      <c r="B5" s="452"/>
+      <c r="C5" s="452"/>
+      <c r="D5" s="452"/>
+      <c r="E5" s="452"/>
+      <c r="F5" s="452"/>
+      <c r="G5" s="452"/>
+      <c r="H5" s="452"/>
+      <c r="I5" s="452"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="257" t="s">
@@ -37544,13 +37546,13 @@
       </c>
       <c r="D7" s="286"/>
       <c r="E7" s="284"/>
-      <c r="G7" s="449">
+      <c r="G7" s="455">
         <v>44684</v>
       </c>
       <c r="H7" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="I7" s="451">
+      <c r="I7" s="458">
         <v>15000</v>
       </c>
     </row>
@@ -37566,11 +37568,11 @@
       </c>
       <c r="D8" s="286"/>
       <c r="E8" s="284"/>
-      <c r="G8" s="449"/>
+      <c r="G8" s="455"/>
       <c r="H8" s="292" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="451"/>
+      <c r="I8" s="458"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="278" t="s">
@@ -37584,11 +37586,11 @@
       </c>
       <c r="D9" s="286"/>
       <c r="E9" s="284"/>
-      <c r="G9" s="450"/>
+      <c r="G9" s="456"/>
       <c r="H9" s="293" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="452"/>
+      <c r="I9" s="459"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1">
       <c r="A10" s="278" t="s">
@@ -37600,13 +37602,13 @@
       </c>
       <c r="D10" s="286"/>
       <c r="E10" s="284"/>
-      <c r="G10" s="449">
+      <c r="G10" s="455">
         <v>44684</v>
       </c>
       <c r="H10" s="292" t="s">
         <v>188</v>
       </c>
-      <c r="I10" s="451">
+      <c r="I10" s="458">
         <v>5500</v>
       </c>
     </row>
@@ -37620,11 +37622,11 @@
       </c>
       <c r="D11" s="286"/>
       <c r="E11" s="284"/>
-      <c r="G11" s="449"/>
+      <c r="G11" s="455"/>
       <c r="H11" s="292" t="s">
         <v>189</v>
       </c>
-      <c r="I11" s="451"/>
+      <c r="I11" s="458"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A12" s="278" t="s">
@@ -37636,11 +37638,11 @@
       </c>
       <c r="D12" s="286"/>
       <c r="E12" s="284"/>
-      <c r="G12" s="450"/>
+      <c r="G12" s="456"/>
       <c r="H12" s="293" t="s">
         <v>187</v>
       </c>
-      <c r="I12" s="452"/>
+      <c r="I12" s="459"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="278"/>
@@ -37648,13 +37650,13 @@
       <c r="C13" s="278"/>
       <c r="D13" s="286"/>
       <c r="E13" s="284"/>
-      <c r="G13" s="449">
+      <c r="G13" s="455">
         <v>44684</v>
       </c>
       <c r="H13" s="292" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="451">
+      <c r="I13" s="458">
         <v>5000</v>
       </c>
     </row>
@@ -37664,11 +37666,11 @@
       <c r="C14" s="256"/>
       <c r="D14" s="286"/>
       <c r="E14" s="284"/>
-      <c r="G14" s="449"/>
+      <c r="G14" s="455"/>
       <c r="H14" s="292" t="s">
         <v>186</v>
       </c>
-      <c r="I14" s="451"/>
+      <c r="I14" s="458"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="278"/>
@@ -37676,11 +37678,11 @@
       <c r="C15" s="278"/>
       <c r="D15" s="286"/>
       <c r="E15" s="284"/>
-      <c r="G15" s="450"/>
+      <c r="G15" s="456"/>
       <c r="H15" s="293" t="s">
         <v>195</v>
       </c>
-      <c r="I15" s="452"/>
+      <c r="I15" s="459"/>
     </row>
     <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="256" t="s">
@@ -37694,13 +37696,13 @@
       </c>
       <c r="D16" s="286"/>
       <c r="E16" s="284"/>
-      <c r="G16" s="449">
+      <c r="G16" s="455">
         <v>44684</v>
       </c>
       <c r="H16" s="292" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="451">
+      <c r="I16" s="458">
         <v>3000</v>
       </c>
     </row>
@@ -37716,11 +37718,11 @@
       </c>
       <c r="D17" s="286"/>
       <c r="E17" s="284"/>
-      <c r="G17" s="449"/>
+      <c r="G17" s="455"/>
       <c r="H17" s="292" t="s">
         <v>192</v>
       </c>
-      <c r="I17" s="451"/>
+      <c r="I17" s="458"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="256" t="s">
@@ -37734,11 +37736,11 @@
       </c>
       <c r="D18" s="286"/>
       <c r="E18" s="284"/>
-      <c r="G18" s="450"/>
+      <c r="G18" s="456"/>
       <c r="H18" s="293" t="s">
         <v>193</v>
       </c>
-      <c r="I18" s="451"/>
+      <c r="I18" s="458"/>
     </row>
     <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="256" t="s">
@@ -37752,13 +37754,13 @@
       </c>
       <c r="D19" s="286"/>
       <c r="E19" s="284"/>
-      <c r="G19" s="449" t="s">
+      <c r="G19" s="455" t="s">
         <v>199</v>
       </c>
       <c r="H19" s="292" t="s">
         <v>191</v>
       </c>
-      <c r="I19" s="465">
+      <c r="I19" s="457">
         <v>18000</v>
       </c>
     </row>
@@ -37774,11 +37776,11 @@
       </c>
       <c r="D20" s="286"/>
       <c r="E20" s="284"/>
-      <c r="G20" s="449"/>
+      <c r="G20" s="455"/>
       <c r="H20" s="292" t="s">
         <v>197</v>
       </c>
-      <c r="I20" s="451"/>
+      <c r="I20" s="458"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="256" t="s">
@@ -37792,11 +37794,11 @@
       </c>
       <c r="D21" s="286"/>
       <c r="E21" s="284"/>
-      <c r="G21" s="450"/>
+      <c r="G21" s="456"/>
       <c r="H21" s="293" t="s">
         <v>198</v>
       </c>
-      <c r="I21" s="452"/>
+      <c r="I21" s="459"/>
     </row>
     <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="256" t="s">
@@ -37810,13 +37812,13 @@
       </c>
       <c r="D22" s="286"/>
       <c r="E22" s="284"/>
-      <c r="G22" s="449" t="s">
+      <c r="G22" s="455" t="s">
         <v>199</v>
       </c>
       <c r="H22" s="292" t="s">
         <v>191</v>
       </c>
-      <c r="I22" s="451">
+      <c r="I22" s="458">
         <v>7500</v>
       </c>
     </row>
@@ -37832,11 +37834,11 @@
       </c>
       <c r="D23" s="286"/>
       <c r="E23" s="284"/>
-      <c r="G23" s="449"/>
+      <c r="G23" s="455"/>
       <c r="H23" s="292" t="s">
         <v>200</v>
       </c>
-      <c r="I23" s="451"/>
+      <c r="I23" s="458"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="A24" s="256" t="s">
@@ -37850,11 +37852,11 @@
       </c>
       <c r="D24" s="286"/>
       <c r="E24" s="284"/>
-      <c r="G24" s="450"/>
+      <c r="G24" s="456"/>
       <c r="H24" s="293" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="452"/>
+      <c r="I24" s="459"/>
     </row>
     <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="256" t="s">
@@ -37868,13 +37870,13 @@
       </c>
       <c r="D25" s="286"/>
       <c r="E25" s="284"/>
-      <c r="G25" s="449" t="s">
+      <c r="G25" s="455" t="s">
         <v>199</v>
       </c>
       <c r="H25" s="292" t="s">
         <v>201</v>
       </c>
-      <c r="I25" s="451">
+      <c r="I25" s="458">
         <v>1000</v>
       </c>
     </row>
@@ -37890,11 +37892,11 @@
       </c>
       <c r="D26" s="286"/>
       <c r="E26" s="284"/>
-      <c r="G26" s="449"/>
+      <c r="G26" s="455"/>
       <c r="H26" s="292" t="s">
         <v>202</v>
       </c>
-      <c r="I26" s="451"/>
+      <c r="I26" s="458"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="256" t="s">
@@ -37908,11 +37910,11 @@
       </c>
       <c r="D27" s="286"/>
       <c r="E27" s="284"/>
-      <c r="G27" s="450"/>
+      <c r="G27" s="456"/>
       <c r="H27" s="293" t="s">
         <v>203</v>
       </c>
-      <c r="I27" s="452"/>
+      <c r="I27" s="459"/>
     </row>
     <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="256" t="s">
@@ -37926,13 +37928,13 @@
       </c>
       <c r="D28" s="286"/>
       <c r="E28" s="284"/>
-      <c r="G28" s="466" t="s">
+      <c r="G28" s="460" t="s">
         <v>199</v>
       </c>
       <c r="H28" s="295" t="s">
         <v>185</v>
       </c>
-      <c r="I28" s="468">
+      <c r="I28" s="462">
         <v>-2000</v>
       </c>
     </row>
@@ -37952,11 +37954,11 @@
       <c r="E29" s="284">
         <v>357484290824718</v>
       </c>
-      <c r="G29" s="466"/>
+      <c r="G29" s="460"/>
       <c r="H29" s="295" t="s">
         <v>204</v>
       </c>
-      <c r="I29" s="469"/>
+      <c r="I29" s="463"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="256" t="s">
@@ -37972,11 +37974,11 @@
         <v>162</v>
       </c>
       <c r="E30" s="284"/>
-      <c r="G30" s="467"/>
+      <c r="G30" s="461"/>
       <c r="H30" s="296" t="s">
         <v>205</v>
       </c>
-      <c r="I30" s="470"/>
+      <c r="I30" s="464"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1">
       <c r="A31" s="256" t="s">
@@ -37992,10 +37994,10 @@
         <v>164</v>
       </c>
       <c r="E31" s="284"/>
-      <c r="G31" s="463" t="s">
+      <c r="G31" s="453" t="s">
         <v>196</v>
       </c>
-      <c r="H31" s="464"/>
+      <c r="H31" s="454"/>
       <c r="I31" s="309">
         <f>SUM(I7:I30)</f>
         <v>53000</v>
@@ -38015,10 +38017,10 @@
         <v>171</v>
       </c>
       <c r="E32" s="284"/>
-      <c r="G32" s="460" t="s">
+      <c r="G32" s="469" t="s">
         <v>222</v>
       </c>
-      <c r="H32" s="461"/>
+      <c r="H32" s="470"/>
       <c r="I32" s="310">
         <f>I52</f>
         <v>37500</v>
@@ -38040,10 +38042,10 @@
       <c r="E33" s="284">
         <v>354551892947593</v>
       </c>
-      <c r="G33" s="458" t="s">
+      <c r="G33" s="467" t="s">
         <v>223</v>
       </c>
-      <c r="H33" s="459"/>
+      <c r="H33" s="468"/>
       <c r="I33" s="311">
         <f>I31-I32</f>
         <v>15500</v>
@@ -38091,16 +38093,16 @@
       <c r="E36" s="284">
         <v>357484290920474</v>
       </c>
-      <c r="G36" s="455" t="s">
+      <c r="G36" s="447" t="s">
         <v>252</v>
       </c>
-      <c r="H36" s="456"/>
-      <c r="I36" s="457"/>
-      <c r="K36" s="455" t="s">
+      <c r="H36" s="448"/>
+      <c r="I36" s="449"/>
+      <c r="K36" s="447" t="s">
         <v>258</v>
       </c>
-      <c r="L36" s="456"/>
-      <c r="M36" s="457"/>
+      <c r="L36" s="448"/>
+      <c r="M36" s="449"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="256" t="s">
@@ -38469,18 +38471,18 @@
       <c r="C52" s="256"/>
       <c r="D52" s="286"/>
       <c r="E52" s="284"/>
-      <c r="G52" s="453" t="s">
+      <c r="G52" s="450" t="s">
         <v>92</v>
       </c>
-      <c r="H52" s="454"/>
+      <c r="H52" s="451"/>
       <c r="I52" s="317">
         <f>SUM(I38:I51)</f>
         <v>37500</v>
       </c>
-      <c r="K52" s="453" t="s">
+      <c r="K52" s="450" t="s">
         <v>92</v>
       </c>
-      <c r="L52" s="454"/>
+      <c r="L52" s="451"/>
       <c r="M52" s="317">
         <f>SUM(M38:M51)</f>
         <v>27000</v>
@@ -38711,6 +38713,18 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="28">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="A1:I1"/>
@@ -38727,18 +38741,6 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="I13:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38764,18 +38766,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A1" s="462"/>
-      <c r="B1" s="462"/>
-      <c r="C1" s="462"/>
-      <c r="D1" s="462"/>
-      <c r="E1" s="462"/>
-      <c r="F1" s="462"/>
+      <c r="A1" s="452"/>
+      <c r="B1" s="452"/>
+      <c r="C1" s="452"/>
+      <c r="D1" s="452"/>
+      <c r="E1" s="452"/>
+      <c r="F1" s="452"/>
     </row>
     <row r="2" spans="1:6" ht="24" thickBot="1">
-      <c r="A2" s="447" t="s">
+      <c r="A2" s="465" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="471"/>
+      <c r="B2" s="466"/>
       <c r="C2" s="297">
         <f>C81</f>
         <v>18000</v>
@@ -38785,12 +38787,12 @@
       <c r="F2" s="308"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="462"/>
-      <c r="B3" s="462"/>
-      <c r="C3" s="462"/>
-      <c r="D3" s="462"/>
-      <c r="E3" s="462"/>
-      <c r="F3" s="462"/>
+      <c r="A3" s="452"/>
+      <c r="B3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="257" t="s">
